--- a/benchmarks/gradient_simulations-90.0-days.xlsx
+++ b/benchmarks/gradient_simulations-90.0-days.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>heuristic</t>
   </si>
@@ -404,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,7 +450,7 @@
         <v>0.5</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="E2">
         <v>3000</v>
@@ -462,109 +462,13 @@
         <v>10</v>
       </c>
       <c r="H2">
-        <v>93774732749.52191</v>
+        <v>33610467333.09586</v>
       </c>
       <c r="I2">
-        <v>126683.9922323364</v>
+        <v>2199.226997257553</v>
       </c>
       <c r="J2">
-        <v>83986106911.97545</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>0.5</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>3000</v>
-      </c>
-      <c r="F3">
-        <v>30000</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3">
-        <v>92145836974.12508</v>
-      </c>
-      <c r="I3">
-        <v>126173.2066307248</v>
-      </c>
-      <c r="J3">
-        <v>82374451704.65706</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>0.5</v>
-      </c>
-      <c r="D4">
-        <v>1000000</v>
-      </c>
-      <c r="E4">
-        <v>3000</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4">
-        <v>76876326864.071</v>
-      </c>
-      <c r="I4">
-        <v>3305.456428325152</v>
-      </c>
-      <c r="J4">
-        <v>73450218328.13846</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>0.5</v>
-      </c>
-      <c r="D5">
-        <v>1000000</v>
-      </c>
-      <c r="E5">
-        <v>3000</v>
-      </c>
-      <c r="F5">
-        <v>30000</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5">
-        <v>77105377357.95216</v>
-      </c>
-      <c r="I5">
-        <v>3301.895918336031</v>
-      </c>
-      <c r="J5">
-        <v>73682524614.28166</v>
+        <v>31300706895.12862</v>
       </c>
     </row>
   </sheetData>

--- a/benchmarks/gradient_simulations-90.0-days.xlsx
+++ b/benchmarks/gradient_simulations-90.0-days.xlsx
@@ -462,13 +462,13 @@
         <v>10</v>
       </c>
       <c r="H2">
-        <v>33610467333.09586</v>
+        <v>46719310559.55733</v>
       </c>
       <c r="I2">
-        <v>2199.226997257553</v>
+        <v>12222.47470164014</v>
       </c>
       <c r="J2">
-        <v>31300706895.12862</v>
+        <v>33500129704.00015</v>
       </c>
     </row>
   </sheetData>

--- a/benchmarks/gradient_simulations-90.0-days.xlsx
+++ b/benchmarks/gradient_simulations-90.0-days.xlsx
@@ -462,13 +462,13 @@
         <v>10</v>
       </c>
       <c r="H2">
-        <v>46719310559.55733</v>
+        <v>48657074655.58054</v>
       </c>
       <c r="I2">
-        <v>12222.47470164014</v>
+        <v>6571.568136483284</v>
       </c>
       <c r="J2">
-        <v>33500129704.00015</v>
+        <v>41730674357.7271</v>
       </c>
     </row>
   </sheetData>

--- a/benchmarks/gradient_simulations-90.0-days.xlsx
+++ b/benchmarks/gradient_simulations-90.0-days.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>heuristic</t>
   </si>
@@ -404,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,7 +450,7 @@
         <v>0.5</v>
       </c>
       <c r="D2">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>3000</v>
@@ -462,13 +462,45 @@
         <v>10</v>
       </c>
       <c r="H2">
-        <v>48657074655.58054</v>
+        <v>58003134915.10947</v>
       </c>
       <c r="I2">
-        <v>6571.568136483284</v>
+        <v>47113.12199081807</v>
       </c>
       <c r="J2">
-        <v>41730674357.7271</v>
+        <v>54212606193.17973</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="D3">
+        <v>1000000</v>
+      </c>
+      <c r="E3">
+        <v>3000</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>50132978458.96886</v>
+      </c>
+      <c r="I3">
+        <v>12808.01833921698</v>
+      </c>
+      <c r="J3">
+        <v>36290462531.10361</v>
       </c>
     </row>
   </sheetData>

--- a/benchmarks/gradient_simulations-90.0-days.xlsx
+++ b/benchmarks/gradient_simulations-90.0-days.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>heuristic</t>
   </si>
@@ -404,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,7 +450,7 @@
         <v>0.5</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="E2">
         <v>3000</v>
@@ -462,45 +462,13 @@
         <v>10</v>
       </c>
       <c r="H2">
-        <v>58003134915.10947</v>
+        <v>28917147085.4152</v>
       </c>
       <c r="I2">
-        <v>47113.12199081807</v>
+        <v>6791.110624416735</v>
       </c>
       <c r="J2">
-        <v>54212606193.17973</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>0.5</v>
-      </c>
-      <c r="D3">
-        <v>1000000</v>
-      </c>
-      <c r="E3">
-        <v>3000</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3">
-        <v>50132978458.96886</v>
-      </c>
-      <c r="I3">
-        <v>12808.01833921698</v>
-      </c>
-      <c r="J3">
-        <v>36290462531.10361</v>
+        <v>21770108661.10713</v>
       </c>
     </row>
   </sheetData>

--- a/benchmarks/gradient_simulations-90.0-days.xlsx
+++ b/benchmarks/gradient_simulations-90.0-days.xlsx
@@ -462,13 +462,13 @@
         <v>10</v>
       </c>
       <c r="H2">
-        <v>28917147085.4152</v>
+        <v>17963215281.11729</v>
       </c>
       <c r="I2">
-        <v>6791.110624416735</v>
+        <v>4704.367475088908</v>
       </c>
       <c r="J2">
-        <v>21770108661.10713</v>
+        <v>11706696534.85714</v>
       </c>
     </row>
   </sheetData>

--- a/benchmarks/gradient_simulations-90.0-days.xlsx
+++ b/benchmarks/gradient_simulations-90.0-days.xlsx
@@ -14,39 +14,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>heuristic</t>
-  </si>
-  <si>
-    <t>delta_schooling</t>
-  </si>
-  <si>
-    <t>xi</t>
-  </si>
-  <si>
-    <t>icus</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>testing</t>
-  </si>
-  <si>
-    <t>economics_value</t>
-  </si>
-  <si>
-    <t>deaths</t>
-  </si>
-  <si>
-    <t>reward</t>
-  </si>
-  <si>
-    <t>gradient</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+  <si>
+    <t>lockdown_heuristic</t>
+  </si>
+  <si>
+    <t>groups</t>
+  </si>
+  <si>
+    <t>experiment_params</t>
+  </si>
+  <si>
+    <t>testing_heuristic</t>
+  </si>
+  <si>
+    <t>results</t>
+  </si>
+  <si>
+    <t>policy</t>
+  </si>
+  <si>
+    <t>a_tests</t>
+  </si>
+  <si>
+    <t>m_tests</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>age_group_gradient</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>{'delta_schooling': 0.5, 'xi': 1000000.0, 'icus': 3000, 'n_a_tests': 0, 'n_m_tests': 0, 'start_day': 60, 'T': 90, 'eta': 0.0}</t>
   </si>
   <si>
     <t>homogeneous</t>
+  </si>
+  <si>
+    <t>{'economics_value': 44423368884.07, 'deaths': 10405.389372512649, 'reward': 30584842447.520485}</t>
+  </si>
+  <si>
+    <t>[{'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}, {'all_age_groups': {'home': 1.0, 'leisure': 0.0, 'other': 0.0, 'school': 0.07129422418227167, 'transport': 0.0, 'work': 1.0}}]</t>
+  </si>
+  <si>
+    <t>[{'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}, {'all_age_groups': 0.0}]</t>
+  </si>
+  <si>
+    <t>age_group_gradient/xi-1000000_icus-3000_testing-homogeneous_natests-0_nmtests-0_T-90_startday-60_groups-one_dschool-0.500000</t>
   </si>
 </sst>
 </file>
@@ -446,29 +464,29 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
-        <v>0.5</v>
-      </c>
-      <c r="D2">
-        <v>1000000</v>
-      </c>
-      <c r="E2">
-        <v>3000</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2">
-        <v>17963215281.11729</v>
-      </c>
-      <c r="I2">
-        <v>4704.367475088908</v>
-      </c>
-      <c r="J2">
-        <v>11706696534.85714</v>
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
